--- a/data/trans_orig/P1417-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4991</v>
+        <v>5773</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002821084767633112</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008544418465090665</v>
+        <v>0.009882415504027681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -765,19 +765,19 @@
         <v>30442</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21042</v>
+        <v>20665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44575</v>
+        <v>43784</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03300579664625536</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02281425683679589</v>
+        <v>0.0224056297233309</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04832878685328425</v>
+        <v>0.04747048271852766</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -786,19 +786,19 @@
         <v>32090</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22016</v>
+        <v>22410</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46001</v>
+        <v>46493</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02130155631697507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01461449506790176</v>
+        <v>0.01487608485733524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0305356737704033</v>
+        <v>0.0308621667018522</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>582493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>579150</v>
+        <v>578368</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>584141</v>
@@ -824,7 +824,7 @@
         <v>0.9971789152323669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9914555815349093</v>
+        <v>0.9901175844959723</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>891891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>877758</v>
+        <v>878549</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>901291</v>
+        <v>901668</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9669942033537446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.951671213146716</v>
+        <v>0.9525295172814727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9771857431632044</v>
+        <v>0.9775943702766692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1428</v>
@@ -857,19 +857,19 @@
         <v>1474384</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1460473</v>
+        <v>1459981</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1484458</v>
+        <v>1484064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9786984436830249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9694643262295967</v>
+        <v>0.9691378332981475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9853855049320982</v>
+        <v>0.9851239151426646</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5522</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12243</v>
+        <v>12982</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005123395530768866</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001803391183910418</v>
+        <v>0.001798557327652966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01135807198250834</v>
+        <v>0.01204369713851597</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -982,19 +982,19 @@
         <v>12756</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6983</v>
+        <v>7034</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21554</v>
+        <v>22055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01206166777539947</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006602783710355787</v>
+        <v>0.006651155581725701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02038150702751313</v>
+        <v>0.02085538902325196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -1003,19 +1003,19 @@
         <v>18278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11032</v>
+        <v>11447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28532</v>
+        <v>28404</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008559462074743538</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005166220665346569</v>
+        <v>0.00536047911056973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01336107556424847</v>
+        <v>0.01330139698259936</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1072372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1065651</v>
+        <v>1064912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1075950</v>
+        <v>1075955</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9948766044692311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9886419280174905</v>
+        <v>0.9879563028614833</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981966088160895</v>
+        <v>0.998201442672347</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1016</v>
@@ -1053,19 +1053,19 @@
         <v>1044782</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1035984</v>
+        <v>1035483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1050555</v>
+        <v>1050504</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9879383322246005</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9796184929724869</v>
+        <v>0.9791446109767481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9933972162896443</v>
+        <v>0.9933488444182744</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2066</v>
@@ -1074,19 +1074,19 @@
         <v>2117154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2106900</v>
+        <v>2107028</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2124400</v>
+        <v>2123985</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9914405379252564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9866389244357516</v>
+        <v>0.9866986030174005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9948337793346534</v>
+        <v>0.9946395208894302</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1754</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12587</v>
+        <v>11401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004107803564622762</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001564057194065922</v>
+        <v>0.0008914754072933967</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01122201864732058</v>
+        <v>0.01016494144943036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>7876</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3518</v>
+        <v>3459</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15076</v>
+        <v>14193</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007924260520845206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003539016818016205</v>
+        <v>0.003479822239692679</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01516774731424888</v>
+        <v>0.01427931449290202</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1220,19 +1220,19 @@
         <v>12484</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6415</v>
+        <v>6765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20381</v>
+        <v>21224</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005900886508688311</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003032380068786044</v>
+        <v>0.003197568735385143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009633774783039688</v>
+        <v>0.01003237789272331</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1116987</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1109007</v>
+        <v>1110193</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1119840</v>
+        <v>1120594</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9958921964353772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9887779813526804</v>
+        <v>0.9898350585505713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984359428059342</v>
+        <v>0.9991085245927066</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>974</v>
@@ -1270,19 +1270,19 @@
         <v>986064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>978864</v>
+        <v>979747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>990422</v>
+        <v>990481</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9920757394791548</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9848322526857509</v>
+        <v>0.9857206855070979</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9964609831819837</v>
+        <v>0.9965201777603069</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2073</v>
@@ -1291,19 +1291,19 @@
         <v>2103050</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2095153</v>
+        <v>2094310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2109119</v>
+        <v>2108769</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9940991134913116</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9903662252169604</v>
+        <v>0.9899676221072768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.996967619931214</v>
+        <v>0.9968024312646149</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5987</v>
+        <v>5918</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003808868885132163</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01338666878977651</v>
+        <v>0.01323323791652915</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>5618</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2107</v>
+        <v>1918</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13320</v>
+        <v>12992</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01646726423059092</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006176296971555539</v>
+        <v>0.005622788301223499</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03904300293072404</v>
+        <v>0.03808307227117609</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1437,19 +1437,19 @@
         <v>7321</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3013</v>
+        <v>3110</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14069</v>
+        <v>14778</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009286730246611329</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003822180576211131</v>
+        <v>0.003945369370649572</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0178458335346826</v>
+        <v>0.01874553573594577</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>445497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>441213</v>
+        <v>441282</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>447200</v>
@@ -1475,7 +1475,7 @@
         <v>0.9961911311148678</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9866133312102235</v>
+        <v>0.9867667620834706</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,19 +1487,19 @@
         <v>335540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>327838</v>
+        <v>328166</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>339051</v>
+        <v>339240</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.983532735769409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.960956997069276</v>
+        <v>0.9619169277288232</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9938237030284445</v>
+        <v>0.9943772116987766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>768</v>
@@ -1508,19 +1508,19 @@
         <v>781037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>774289</v>
+        <v>773580</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>785345</v>
+        <v>785248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9907132697533887</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9821541664653174</v>
+        <v>0.9812544642640543</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9961778194237888</v>
+        <v>0.9960546306293504</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7688</v>
+        <v>7416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23945</v>
+        <v>23014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004172613912142814</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002379622728420754</v>
+        <v>0.002295388656236857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007411417562427016</v>
+        <v>0.007123180112831203</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -1633,19 +1633,19 @@
         <v>56692</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42592</v>
+        <v>41750</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72915</v>
+        <v>72676</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01710187670280393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01284841828898507</v>
+        <v>0.01259448349071274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02199579691218699</v>
+        <v>0.02192345409504024</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -1654,19 +1654,19 @@
         <v>70173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53317</v>
+        <v>54784</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87871</v>
+        <v>86959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01072034151792176</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008145189934293744</v>
+        <v>0.008369366199495618</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01342409132772645</v>
+        <v>0.01328476205678691</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3217348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3206884</v>
+        <v>3207815</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3223141</v>
+        <v>3223413</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9958273860878571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.992588582437574</v>
+        <v>0.9928768198871685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976203772715793</v>
+        <v>0.997704611343763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3180</v>
@@ -1704,19 +1704,19 @@
         <v>3258277</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3242054</v>
+        <v>3242293</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3272377</v>
+        <v>3273219</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9828981232971961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.978004203087813</v>
+        <v>0.9780765459049598</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9871515817110149</v>
+        <v>0.9874055165092872</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6335</v>
@@ -1725,19 +1725,19 @@
         <v>6475625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6457927</v>
+        <v>6458839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6492481</v>
+        <v>6491014</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9892796584820782</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9865759086722736</v>
+        <v>0.9867152379432131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9918548100657065</v>
+        <v>0.9916306338005044</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>4230</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10486</v>
+        <v>10761</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004052142455170356</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001066733247261714</v>
+        <v>0.00105416954616786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01004484512198888</v>
+        <v>0.0103081960887893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -2090,19 +2090,19 @@
         <v>41627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29344</v>
+        <v>30048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55382</v>
+        <v>55540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03721187284247748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02623184671077004</v>
+        <v>0.02686101309458859</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04950815306774634</v>
+        <v>0.04964874914910425</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -2111,19 +2111,19 @@
         <v>45857</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34331</v>
+        <v>32991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63619</v>
+        <v>61168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02120484776566761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01587490149463953</v>
+        <v>0.01525534696264286</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02941788465058856</v>
+        <v>0.02828444505384606</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1039705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1033449</v>
+        <v>1033174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1042821</v>
+        <v>1042835</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9959478575448296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9899551548780111</v>
+        <v>0.9896918039112107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9989332667527383</v>
+        <v>0.9989458304538321</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>991</v>
@@ -2161,19 +2161,19 @@
         <v>1077026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1063271</v>
+        <v>1063113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1089309</v>
+        <v>1088605</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9627881271575225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9504918469322536</v>
+        <v>0.9503512508508957</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9737681532892299</v>
+        <v>0.9731389869054113</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1965</v>
@@ -2182,19 +2182,19 @@
         <v>2116731</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2098969</v>
+        <v>2101420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2128257</v>
+        <v>2129597</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9787951522343324</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9705821153494114</v>
+        <v>0.9717155549461541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9841250985053605</v>
+        <v>0.9847446530373571</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>3061</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8204</v>
+        <v>9045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003132506740533192</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001001035603747265</v>
+        <v>0.00100698484100043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008396848425339085</v>
+        <v>0.009257651754944295</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2307,19 +2307,19 @@
         <v>22304</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14351</v>
+        <v>14317</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32081</v>
+        <v>33060</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0204191751521081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01313765327095918</v>
+        <v>0.01310700822087123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02936963422271657</v>
+        <v>0.03026605769203776</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -2328,19 +2328,19 @@
         <v>25365</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17196</v>
+        <v>16986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36425</v>
+        <v>36596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01225722687984613</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008309594141713623</v>
+        <v>0.008207978607105986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01760152619706671</v>
+        <v>0.01768444785306084</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>974012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>968869</v>
+        <v>968028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>976095</v>
+        <v>976089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9968674932594668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9916031515746609</v>
+        <v>0.9907423482450555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9989989643962527</v>
+        <v>0.9989930151589996</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>997</v>
@@ -2378,19 +2378,19 @@
         <v>1070023</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1060246</v>
+        <v>1059267</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1077976</v>
+        <v>1078010</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9795808248478919</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9706303657772832</v>
+        <v>0.9697339423079623</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9868623467290408</v>
+        <v>0.9868929917791288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1918</v>
@@ -2399,19 +2399,19 @@
         <v>2044035</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2032975</v>
+        <v>2032804</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2052204</v>
+        <v>2052414</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9877427731201539</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9823984738029333</v>
+        <v>0.9823155521469392</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9916904058582864</v>
+        <v>0.991792021392894</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>5953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2014</v>
+        <v>2053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12772</v>
+        <v>12005</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006726131077189016</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002275170407141453</v>
+        <v>0.00231905709181975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01443026087609709</v>
+        <v>0.01356336549048755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -2524,19 +2524,19 @@
         <v>19387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11566</v>
+        <v>12224</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30602</v>
+        <v>30677</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02216269288836809</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01322184785675893</v>
+        <v>0.01397447386160091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03498327454755341</v>
+        <v>0.03506945277721681</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -2545,19 +2545,19 @@
         <v>25340</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15426</v>
+        <v>16291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36986</v>
+        <v>38633</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01439895035069636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008765663122239652</v>
+        <v>0.009257152494466422</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02101660850509938</v>
+        <v>0.02195245294680105</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>879162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>872343</v>
+        <v>873110</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>883101</v>
+        <v>883062</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.993273868922811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9855697391239029</v>
+        <v>0.9864366345095125</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9977248295928585</v>
+        <v>0.9976809429081802</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>803</v>
@@ -2595,19 +2595,19 @@
         <v>855362</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>844147</v>
+        <v>844072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>863183</v>
+        <v>862525</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9778373071116319</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9650167254524462</v>
+        <v>0.9649305472227832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.986778152143241</v>
+        <v>0.9860255261383986</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1627</v>
@@ -2616,19 +2616,19 @@
         <v>1734524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1722878</v>
+        <v>1721231</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1744438</v>
+        <v>1743573</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9856010496493036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9789833914949005</v>
+        <v>0.9780475470531986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9912343368777603</v>
+        <v>0.9907428475055335</v>
       </c>
     </row>
     <row r="12">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6510</v>
+        <v>7196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004135347118698648</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01294167038634967</v>
+        <v>0.01430524984119238</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2741,19 +2741,19 @@
         <v>13241</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7289</v>
+        <v>7301</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22916</v>
+        <v>23813</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02924663871919212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0161001832380032</v>
+        <v>0.01612539712344378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0506158358416584</v>
+        <v>0.05259856090479673</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -2762,19 +2762,19 @@
         <v>15321</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9170</v>
+        <v>8691</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25632</v>
+        <v>24539</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01603037948239944</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00959470258321409</v>
+        <v>0.009092956634378369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02681831155599298</v>
+        <v>0.0256746080225354</v>
       </c>
     </row>
     <row r="14">
@@ -2791,7 +2791,7 @@
         <v>500943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>496513</v>
+        <v>495827</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>503023</v>
@@ -2800,7 +2800,7 @@
         <v>0.9958646528813013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9870583296136488</v>
+        <v>0.9856947501588077</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2812,19 +2812,19 @@
         <v>439495</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>429820</v>
+        <v>428923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>445447</v>
+        <v>445435</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9707533612808079</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9493841641583416</v>
+        <v>0.9474014390952032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9838998167619968</v>
+        <v>0.9838746028765563</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>859</v>
@@ -2833,19 +2833,19 @@
         <v>940437</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>930126</v>
+        <v>931219</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>946588</v>
+        <v>947067</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9839696205176005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9731816884440061</v>
+        <v>0.9743253919774646</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9904052974167858</v>
+        <v>0.9909070433656213</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>15324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9048</v>
+        <v>9031</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24496</v>
+        <v>24287</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004495095233921341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002654044032966708</v>
+        <v>0.002648998763439443</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.00718531136070328</v>
+        <v>0.007123985041879707</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -2958,19 +2958,19 @@
         <v>96559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78667</v>
+        <v>77403</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117587</v>
+        <v>117115</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02728849518024748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02223203854325981</v>
+        <v>0.02187466663764939</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03323100137102881</v>
+        <v>0.03309769145108683</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -2979,19 +2979,19 @@
         <v>111884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92378</v>
+        <v>92039</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136409</v>
+        <v>134076</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01610392778720048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01329642481646475</v>
+        <v>0.01324764702276321</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01963388843539074</v>
+        <v>0.01929807879694884</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3393821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3384649</v>
+        <v>3384858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3400097</v>
+        <v>3400114</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9955049047660787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9928146886392969</v>
+        <v>0.9928760149581203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9973459559670332</v>
+        <v>0.9973510012365606</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3191</v>
@@ -3029,19 +3029,19 @@
         <v>3441906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3420878</v>
+        <v>3421350</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3459798</v>
+        <v>3461062</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9727115048197525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9667689986289715</v>
+        <v>0.9669023085489132</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9777679614567404</v>
+        <v>0.9781253333623507</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6369</v>
@@ -3050,19 +3050,19 @@
         <v>6835726</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6811201</v>
+        <v>6813534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6855232</v>
+        <v>6855571</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9838960722127995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9803661115646091</v>
+        <v>0.9807019212030506</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9867035751835352</v>
+        <v>0.9867523529772367</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>5615</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2033</v>
+        <v>2011</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13900</v>
+        <v>12959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004977757747875572</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001802053535548424</v>
+        <v>0.001782764157012944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01232259062734918</v>
+        <v>0.01148872782658036</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -3415,19 +3415,19 @@
         <v>39506</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28177</v>
+        <v>28789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53265</v>
+        <v>52776</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03136504639486599</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02237022528335124</v>
+        <v>0.0228563459006281</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04228879800805224</v>
+        <v>0.04190050716814042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -3436,19 +3436,19 @@
         <v>45121</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32823</v>
+        <v>32774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60785</v>
+        <v>61146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01889842212681423</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0137473912271453</v>
+        <v>0.01372711385071763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02545912340604103</v>
+        <v>0.02561025429201941</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1122382</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1114097</v>
+        <v>1115038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1125964</v>
+        <v>1125986</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9950222422521244</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9876774093726508</v>
+        <v>0.9885112721734197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9981979464644516</v>
+        <v>0.998217235842987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1151</v>
@@ -3486,19 +3486,19 @@
         <v>1220055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1206296</v>
+        <v>1206785</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1231384</v>
+        <v>1230772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.968634953605134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9577112019919476</v>
+        <v>0.9580994928318596</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9776297747166487</v>
+        <v>0.9771436540993719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2212</v>
@@ -3507,19 +3507,19 @@
         <v>2342437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2326773</v>
+        <v>2326412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2354735</v>
+        <v>2354784</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9811015778731857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9745408765939589</v>
+        <v>0.9743897457079804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9862526087728547</v>
+        <v>0.9862728861492824</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>6484</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2782</v>
+        <v>2749</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12525</v>
+        <v>13388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007134181884067559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003061025786880567</v>
+        <v>0.003024526196852869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0137820346016224</v>
+        <v>0.01473087156587409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -3632,19 +3632,19 @@
         <v>17724</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10500</v>
+        <v>10476</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27261</v>
+        <v>26272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01761038913724599</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01043246826514165</v>
+        <v>0.01040887861536218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02708561403179729</v>
+        <v>0.02610335978349294</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -3653,19 +3653,19 @@
         <v>24208</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15902</v>
+        <v>15931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34910</v>
+        <v>35100</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01263934733440428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008302864653391733</v>
+        <v>0.008317869867030491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01822695371098618</v>
+        <v>0.01832616862882536</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>902341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>896300</v>
+        <v>895437</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906043</v>
+        <v>906076</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9928658181159324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9862179653983776</v>
+        <v>0.985269128434126</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969389742131194</v>
+        <v>0.9969754738031471</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>934</v>
@@ -3703,19 +3703,19 @@
         <v>988751</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>979214</v>
+        <v>980203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>995975</v>
+        <v>995999</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.982389610862754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9729143859682027</v>
+        <v>0.973896640216507</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9895675317348583</v>
+        <v>0.9895911213846379</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1808</v>
@@ -3724,19 +3724,19 @@
         <v>1891092</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1880390</v>
+        <v>1880200</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1899398</v>
+        <v>1899369</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9873606526655957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.981773046289014</v>
+        <v>0.9816738313711745</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9916971353466083</v>
+        <v>0.9916821301329695</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>3953</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9805</v>
+        <v>9647</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004798362523349974</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001254999981669217</v>
+        <v>0.001252687244596949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01190242280548286</v>
+        <v>0.01171121548821426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3849,19 +3849,19 @@
         <v>17939</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10652</v>
+        <v>11227</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27111</v>
+        <v>28486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02326476247253654</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01381436535718757</v>
+        <v>0.01456069992300541</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03516033722843354</v>
+        <v>0.03694414178316451</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3870,19 +3870,19 @@
         <v>21891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13870</v>
+        <v>14295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34471</v>
+        <v>34005</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01372645235268527</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008696984828176733</v>
+        <v>0.008963632804844074</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02161421964497509</v>
+        <v>0.02132246167183682</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>819806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>813954</v>
+        <v>814112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>822725</v>
+        <v>822727</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.99520163747665</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9880975771945173</v>
+        <v>0.9882887845117856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9987450000183308</v>
+        <v>0.9987473127554031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>711</v>
@@ -3920,19 +3920,19 @@
         <v>753120</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>743948</v>
+        <v>742573</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>760407</v>
+        <v>759832</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9767352375274635</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9648396627715664</v>
+        <v>0.963055858216836</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9861856346428123</v>
+        <v>0.9854393000769948</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1494</v>
@@ -3941,19 +3941,19 @@
         <v>1572927</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1560347</v>
+        <v>1560813</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1580948</v>
+        <v>1580523</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9862735476473147</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9783857803550247</v>
+        <v>0.9786775383281632</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9913030151718232</v>
+        <v>0.9910363671951559</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>3045</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8186</v>
+        <v>8338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006008661976211198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0017775199599416</v>
+        <v>0.001781680041828346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01615525067516558</v>
+        <v>0.0164552627854913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4066,19 +4066,19 @@
         <v>11705</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5571</v>
+        <v>6233</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21102</v>
+        <v>20491</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02390256643190766</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01137737044044178</v>
+        <v>0.0127277532381604</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04309137670116205</v>
+        <v>0.04184457448392251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -4087,19 +4087,19 @@
         <v>14750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7695</v>
+        <v>8599</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24141</v>
+        <v>26517</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01480293617216605</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007722818855197371</v>
+        <v>0.008630368390511928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02422859209248691</v>
+        <v>0.0266129357143578</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>503656</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498515</v>
+        <v>498363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>505800</v>
+        <v>505798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9939913380237888</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9838447493248346</v>
+        <v>0.9835447372145086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982224800400584</v>
+        <v>0.9982183199581717</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -4137,19 +4137,19 @@
         <v>477993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>468596</v>
+        <v>469207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>484127</v>
+        <v>483465</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9760974335680923</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9569086232988372</v>
+        <v>0.9581554255160776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9886226295595582</v>
+        <v>0.9872722467618398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>913</v>
@@ -4158,19 +4158,19 @@
         <v>981648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>972257</v>
+        <v>969881</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>988703</v>
+        <v>987799</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9851970638278339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.975771407907513</v>
+        <v>0.9733870642856426</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9922771811448026</v>
+        <v>0.9913696316094881</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>19096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11646</v>
+        <v>12125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29998</v>
+        <v>30073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00567101513921208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003458586372505847</v>
+        <v>0.003600700827741794</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008908689039532474</v>
+        <v>0.008931001707025585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -4283,19 +4283,19 @@
         <v>86874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71067</v>
+        <v>71166</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108823</v>
+        <v>108679</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02463261829142422</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02015051233187797</v>
+        <v>0.0201785596216665</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03085609764339864</v>
+        <v>0.03081518621462395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -4304,19 +4304,19 @@
         <v>105970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>87408</v>
+        <v>86333</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129590</v>
+        <v>129008</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0153711766351737</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01267865284972252</v>
+        <v>0.01252278917889068</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01879728762887129</v>
+        <v>0.01871284948501442</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3348186</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3337284</v>
+        <v>3337209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3355636</v>
+        <v>3355157</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9943289848607879</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9910913109604677</v>
+        <v>0.9910689982929742</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9965414136274942</v>
+        <v>0.9963992991722576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3241</v>
@@ -4354,19 +4354,19 @@
         <v>3439918</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3417969</v>
+        <v>3418113</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3455725</v>
+        <v>3455626</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9753673817085757</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9691439023566014</v>
+        <v>0.9691848137853761</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9798494876681221</v>
+        <v>0.9798214403783335</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6427</v>
@@ -4375,19 +4375,19 @@
         <v>6788105</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6764485</v>
+        <v>6765067</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6806667</v>
+        <v>6807742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9846288233648263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9812027123711288</v>
+        <v>0.9812871505149856</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9873213471502775</v>
+        <v>0.9874772108211094</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>10367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5707</v>
+        <v>5559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17987</v>
+        <v>17797</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02087949376316706</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01149302545683074</v>
+        <v>0.01119635535350472</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03622556186671835</v>
+        <v>0.03584260156223163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -4740,19 +4740,19 @@
         <v>49000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38802</v>
+        <v>38567</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63521</v>
+        <v>63003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07865997962910597</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06228865162193086</v>
+        <v>0.06191122752376095</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.101970840705895</v>
+        <v>0.1011386927413656</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -4761,19 +4761,19 @@
         <v>59368</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46610</v>
+        <v>47179</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75655</v>
+        <v>74923</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05303167175543923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04163521618352883</v>
+        <v>0.042144051181898</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06758128961990566</v>
+        <v>0.06692746178120239</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>486171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>478551</v>
+        <v>478741</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490831</v>
+        <v>490979</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.979120506236833</v>
+        <v>0.9791205062368329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9637744381332816</v>
+        <v>0.9641573984377685</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9885069745431692</v>
+        <v>0.9888036446464952</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>789</v>
@@ -4811,19 +4811,19 @@
         <v>573935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559414</v>
+        <v>559932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>584133</v>
+        <v>584368</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9213400203708941</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8980291592941049</v>
+        <v>0.8988613072586341</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.937711348378069</v>
+        <v>0.9380887724762393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1230</v>
@@ -4832,19 +4832,19 @@
         <v>1060105</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1043818</v>
+        <v>1044550</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1072863</v>
+        <v>1072294</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9469683282445606</v>
+        <v>0.9469683282445608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9324187103800941</v>
+        <v>0.9330725382187978</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9583647838164709</v>
+        <v>0.957855948818102</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>13390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8596</v>
+        <v>7986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20981</v>
+        <v>20348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01394570731489756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008952585139138498</v>
+        <v>0.008317659755983184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02185157807149946</v>
+        <v>0.02119293202072388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -4957,19 +4957,19 @@
         <v>43202</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33917</v>
+        <v>33105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55199</v>
+        <v>54475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03876250509511169</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03043189243859482</v>
+        <v>0.0297033089160184</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04952620024799795</v>
+        <v>0.04887671902813288</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -4978,19 +4978,19 @@
         <v>56592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45238</v>
+        <v>44775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69862</v>
+        <v>69753</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02727753853410887</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02180492856014134</v>
+        <v>0.02158167374829366</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03367362317587849</v>
+        <v>0.03362147460709873</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>946747</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>939156</v>
+        <v>939789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>951541</v>
+        <v>952151</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9860542926851026</v>
+        <v>0.9860542926851024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9781484219285005</v>
+        <v>0.9788070679792762</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910474148608615</v>
+        <v>0.9916823402440168</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1533</v>
@@ -5028,19 +5028,19 @@
         <v>1071332</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1059335</v>
+        <v>1060059</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1080617</v>
+        <v>1081429</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9612374949048883</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.950473799752002</v>
+        <v>0.9511232809718669</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9695681075614052</v>
+        <v>0.9702966910839814</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2422</v>
@@ -5049,19 +5049,19 @@
         <v>2018078</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2004808</v>
+        <v>2004917</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2029432</v>
+        <v>2029895</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9727224614658911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.966326376824121</v>
+        <v>0.9663785253929014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9781950714398584</v>
+        <v>0.9784183262517063</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>9787</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5265</v>
+        <v>5297</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16512</v>
+        <v>16486</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009361003963689845</v>
+        <v>0.009361003963689843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005035784753783265</v>
+        <v>0.005066520484834775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0157934510468592</v>
+        <v>0.01576899740484104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5174,19 +5174,19 @@
         <v>34955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26368</v>
+        <v>25641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44556</v>
+        <v>45480</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03341512649551094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02520644053180499</v>
+        <v>0.02451106648786921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04259258100049847</v>
+        <v>0.04347638592489926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -5195,19 +5195,19 @@
         <v>44742</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34516</v>
+        <v>35078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56009</v>
+        <v>57590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02139164023571207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01650245425943791</v>
+        <v>0.01677100699307882</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02677856581182604</v>
+        <v>0.02753426221037704</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1035684</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1028959</v>
+        <v>1028985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1040206</v>
+        <v>1040174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9906389960363102</v>
+        <v>0.99063899603631</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9842065489531406</v>
+        <v>0.9842310025951587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9949642152462166</v>
+        <v>0.9949334795151653</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1457</v>
@@ -5245,19 +5245,19 @@
         <v>1011138</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1001537</v>
+        <v>1000613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1019725</v>
+        <v>1020452</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9665848735044892</v>
+        <v>0.9665848735044891</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9574074189995014</v>
+        <v>0.9565236140751001</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9747935594681948</v>
+        <v>0.9754889335121308</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2472</v>
@@ -5266,19 +5266,19 @@
         <v>2046821</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2035554</v>
+        <v>2033973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2057047</v>
+        <v>2056485</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9786083597642881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9732214341881743</v>
+        <v>0.9724657377896236</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9834975457405624</v>
+        <v>0.9832289930069212</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>10209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5219</v>
+        <v>5666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18355</v>
+        <v>17565</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01047531542721116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005355175740323966</v>
+        <v>0.005814181696039103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01883408461854546</v>
+        <v>0.0180233778321889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -5391,19 +5391,19 @@
         <v>40649</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30727</v>
+        <v>30323</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54050</v>
+        <v>53178</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04482244279031078</v>
+        <v>0.04482244279031079</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03388121566648573</v>
+        <v>0.0334354587688397</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05959883379812685</v>
+        <v>0.05863711516500544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -5412,19 +5412,19 @@
         <v>50858</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38920</v>
+        <v>38394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66130</v>
+        <v>66358</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0270312791750506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02068616729282039</v>
+        <v>0.02040667502058544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03514816771039111</v>
+        <v>0.03526928009203072</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>964353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>956207</v>
+        <v>956997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>969343</v>
+        <v>968896</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.989524684572789</v>
+        <v>0.9895246845727886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9811659153814548</v>
+        <v>0.9819766221678111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9946448242596762</v>
+        <v>0.9941858183039609</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1264</v>
@@ -5462,19 +5462,19 @@
         <v>866251</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>852850</v>
+        <v>853722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>876173</v>
+        <v>876577</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9551775572096892</v>
+        <v>0.9551775572096893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9404011662018726</v>
+        <v>0.9413628848349949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9661187843335143</v>
+        <v>0.9665645412311604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2197</v>
@@ -5483,19 +5483,19 @@
         <v>1830604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1815332</v>
+        <v>1815104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1842542</v>
+        <v>1843068</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9729687208249493</v>
+        <v>0.9729687208249496</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9648518322896092</v>
+        <v>0.9647307199079692</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9793138327071798</v>
+        <v>0.9795933249794145</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>43753</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32983</v>
+        <v>34371</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57429</v>
+        <v>57082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01258453448750085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009486736665601903</v>
+        <v>0.00988616748637214</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01651829203695197</v>
+        <v>0.01641847471458493</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>253</v>
@@ -5608,19 +5608,19 @@
         <v>167807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147201</v>
+        <v>147956</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>190780</v>
+        <v>193463</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04547045655369735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03988698989278279</v>
+        <v>0.04009143250819557</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05169541415776151</v>
+        <v>0.05242240434915543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>312</v>
@@ -5629,19 +5629,19 @@
         <v>211560</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>188823</v>
+        <v>188531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240035</v>
+        <v>238889</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02951789164848569</v>
+        <v>0.0295178916484857</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02634558686515657</v>
+        <v>0.02630486184660199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0334908811738578</v>
+        <v>0.03333096253851931</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3432954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3419278</v>
+        <v>3419625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3443724</v>
+        <v>3442336</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9874154655124993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9834817079630472</v>
+        <v>0.9835815252854149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9905132633343979</v>
+        <v>0.9901138325136279</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5043</v>
@@ -5679,19 +5679,19 @@
         <v>3522654</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3499681</v>
+        <v>3496998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3543260</v>
+        <v>3542505</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9545295434463027</v>
+        <v>0.9545295434463026</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9483045858422385</v>
+        <v>0.9475775956508454</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9601130101072181</v>
+        <v>0.9599085674918046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8321</v>
@@ -5700,19 +5700,19 @@
         <v>6955608</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6927133</v>
+        <v>6928279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6978345</v>
+        <v>6978637</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9704821083515143</v>
+        <v>0.9704821083515144</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9665091188261422</v>
+        <v>0.9666690374614808</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9736544131348435</v>
+        <v>0.9736951381533981</v>
       </c>
     </row>
     <row r="18">
